--- a/conception/dictionnaire de données - tatanimo.xlsx
+++ b/conception/dictionnaire de données - tatanimo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LBert\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LBert\OneDrive\Documents\Projet\tatanimo\AppWeb\conception\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EE2499-C70D-4BEC-ADC7-33B7155C0588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7C4120-67B2-4EC4-BA0B-70E20359B7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{6A4C4BEF-2EF4-4ABB-B0B3-A71D5F4C9AFC}"/>
+    <workbookView xWindow="17475" yWindow="0" windowWidth="11325" windowHeight="15600" firstSheet="1" activeTab="1" xr2:uid="{6A4C4BEF-2EF4-4ABB-B0B3-A71D5F4C9AFC}"/>
   </bookViews>
   <sheets>
     <sheet name="gestion de paie" sheetId="1" r:id="rId1"/>
@@ -1183,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD0941A-1340-4C73-A560-FC013F0B049D}">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="150" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1413,7 +1413,7 @@
         <v>37</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>39</v>
